--- a/Test c#/Output/TestOut.xlsx
+++ b/Test c#/Output/TestOut.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -23,6 +23,141 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Original ID</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0457</t>
+  </si>
+  <si>
+    <t>Reten delantero partido D660-D700x20 GVP</t>
+  </si>
+  <si>
+    <t>Gamesa</t>
+  </si>
+  <si>
+    <t>107912</t>
+  </si>
+  <si>
+    <t>RV8-10-C-0-50 VALVE</t>
+  </si>
+  <si>
+    <t>109534</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0458</t>
+  </si>
+  <si>
+    <t>MOTOR ABB 3480RPM, 1.5KW 1.7A 690V 60HZ</t>
+  </si>
+  <si>
+    <t>GP005890</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0459</t>
+  </si>
+  <si>
+    <t>ACTUADOR JOVENTA mod.DAS2.S 8Nm</t>
+  </si>
+  <si>
+    <t>GP009355</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0460</t>
+  </si>
+  <si>
+    <t>100-115-40 FRICTION BEARING</t>
+  </si>
+  <si>
+    <t>GP021965</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0461</t>
+  </si>
+  <si>
+    <t>G87GF CYLINDER HOLDER (MACHINING)</t>
+  </si>
+  <si>
+    <t>GP022073</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0462</t>
+  </si>
+  <si>
+    <t>SILICONE DOW CORNING 7093 WHITE</t>
+  </si>
+  <si>
+    <t>GP022119</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0463</t>
+  </si>
+  <si>
+    <t>SEAL GAUGE 0.5 MM REAR BEARING</t>
+  </si>
+  <si>
+    <t>GP072783</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0464</t>
+  </si>
+  <si>
+    <t>SEAL GAUGE 1 MM REAR BEARING</t>
+  </si>
+  <si>
+    <t>GP072793</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0465</t>
+  </si>
+  <si>
+    <t>Stickers botton section</t>
+  </si>
+  <si>
+    <t>GP099957</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0466</t>
+  </si>
+  <si>
+    <t>BOLTS PLATFORMS FLANGE</t>
+  </si>
+  <si>
+    <t>GP099847</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0467</t>
+  </si>
+  <si>
+    <t>ADAPTER INTERFACE FOR WIND VANE SIGNAL</t>
+  </si>
+  <si>
+    <t>9010623</t>
+  </si>
+  <si>
+    <t>NORDX-PRT-0002</t>
+  </si>
+  <si>
+    <t>slip ring unit excl. enc. K08 CCV gamma</t>
+  </si>
+  <si>
+    <t>Nordex</t>
+  </si>
+  <si>
+    <t>32828</t>
+  </si>
+  <si>
+    <t>spindle for Liftket chain hoist</t>
+  </si>
+  <si>
+    <t>24298</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -77,49 +212,187 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Original ID</t>
-  </si>
-  <si>
-    <t>PATTN-WKO-GAM-20150615-01</t>
+    <t>PATTN-WKO-GAM-20150511-04</t>
+  </si>
+  <si>
+    <t>GAM-ALARM 204 LOW HYDRALIC PREESURE</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Corrective Maintenance</t>
+  </si>
+  <si>
+    <t>Forced</t>
+  </si>
+  <si>
+    <t>02-High</t>
+  </si>
+  <si>
+    <t>5/11/2015</t>
+  </si>
+  <si>
+    <t>5/12/2015</t>
+  </si>
+  <si>
+    <t>Patton</t>
+  </si>
+  <si>
+    <t>Unplanned</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>PMI-004</t>
+  </si>
+  <si>
+    <t>VEN-165</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>401991109</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150511-05</t>
+  </si>
+  <si>
+    <t>GAM-ALARM 2106 TEMP MEASUREENT FAILURE</t>
+  </si>
+  <si>
+    <t>2000541: LOCAL RESET</t>
+  </si>
+  <si>
+    <t>401991714</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150511-06</t>
+  </si>
+  <si>
+    <t>GAM-30 Month Minor maint. G9X Patton</t>
+  </si>
+  <si>
+    <t>Preventive Maintenance</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>03-Medium</t>
+  </si>
+  <si>
+    <t>PMI-003</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0449</t>
+  </si>
+  <si>
+    <t>30 month maintance</t>
+  </si>
+  <si>
+    <t>500716986</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150512-04</t>
+  </si>
+  <si>
+    <t>GAM- WARNING 404 HIGH GEARBOX TEMP</t>
+  </si>
+  <si>
+    <t>2000541: FOUND TWO LOUVERS BURT UP</t>
+  </si>
+  <si>
+    <t>401990439</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150512-05</t>
+  </si>
+  <si>
+    <t>GAM- WARNING 114 LOW YAW BRAKE PRESSURE</t>
+  </si>
+  <si>
+    <t>2000541: ADJUSTED THE PRESSURES</t>
+  </si>
+  <si>
+    <t>401990443</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150512-06</t>
+  </si>
+  <si>
+    <t>GAM- AUTOLUBBER DM</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0451</t>
+  </si>
+  <si>
+    <t>2000541: AUTO LUBBER DM</t>
+  </si>
+  <si>
+    <t>401991153</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0452</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0453</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0381</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0454</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0455</t>
+  </si>
+  <si>
+    <t>GAMSA-PRT-0456</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150513-02</t>
+  </si>
+  <si>
+    <t>GAM-ALARM 403 HIG GEARBOX TEMP</t>
+  </si>
+  <si>
+    <t>5/13/2015</t>
+  </si>
+  <si>
+    <t>2000541: FOUND THE GEARBOX FAN FAILED REPLACED IT</t>
+  </si>
+  <si>
+    <t>401991588</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150514-02</t>
+  </si>
+  <si>
+    <t>GAM-30 Month Minor maint. Patton</t>
+  </si>
+  <si>
+    <t>5/14/2015</t>
+  </si>
+  <si>
+    <t>500833127</t>
+  </si>
+  <si>
+    <t>PATTN-WKO-GAM-20150615-02</t>
   </si>
   <si>
     <t>GAM-ALARM 2106 T-MEASUREMENT FAILURE</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Corrective Maintenance</t>
-  </si>
-  <si>
-    <t>Forced</t>
-  </si>
-  <si>
-    <t>02-High</t>
-  </si>
-  <si>
     <t>6/15/2015</t>
   </si>
   <si>
-    <t>Patton</t>
-  </si>
-  <si>
-    <t>Unplanned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>PMI-004</t>
-  </si>
-  <si>
-    <t>VEN-165</t>
-  </si>
-  <si>
     <t>402022836</t>
   </si>
   <si>
-    <t>PATTN-WKO-GAM-20150616-01</t>
+    <t>PATTN-WKO-GAM-20150616-03</t>
   </si>
   <si>
     <t>REPLACED THE DECK SUPPORT RODS</t>
@@ -131,7 +404,7 @@
     <t>402024751</t>
   </si>
   <si>
-    <t>PATTN-WKO-GAM-20150616-02</t>
+    <t>PATTN-WKO-GAM-20150616-04</t>
   </si>
   <si>
     <t>REPLACED THE DECK SUPPORT ROD</t>
@@ -140,7 +413,7 @@
     <t>402024772</t>
   </si>
   <si>
-    <t>PATTN-WKO-GAM-20150618-01</t>
+    <t>PATTN-WKO-GAM-20150618-02</t>
   </si>
   <si>
     <t>AUTOLUBBER DM</t>
@@ -149,10 +422,13 @@
     <t>6/18/2015</t>
   </si>
   <si>
+    <t>2000541: AUTOLUBBER DM</t>
+  </si>
+  <si>
     <t>402027021</t>
   </si>
   <si>
-    <t>PATTN-WKO-GAM-20150621-01</t>
+    <t>PATTN-WKO-GAM-20150621-02</t>
   </si>
   <si>
     <t>GAM-loal reset</t>
@@ -161,10 +437,13 @@
     <t>6/21/2015</t>
   </si>
   <si>
+    <t>2000541: local reset</t>
+  </si>
+  <si>
     <t>402029646</t>
   </si>
   <si>
-    <t>PATTN-WKO-GAM-20150622-01</t>
+    <t>PATTN-WKO-GAM-20150622-02</t>
   </si>
   <si>
     <t>CHECKED THE SLIP RING FOR ARC MARKS</t>
@@ -173,7 +452,70 @@
     <t>6/22/2015</t>
   </si>
   <si>
+    <t>2000541: CHECKED THE SLIP RING FOR ARC MARKS</t>
+  </si>
+  <si>
     <t>402029810</t>
+  </si>
+  <si>
+    <t>HIGHNO-WKO-NDX-20150107-02</t>
+  </si>
+  <si>
+    <t>Check In - NDX - 81854 - Troubleshooting</t>
+  </si>
+  <si>
+    <t>1/7/2015</t>
+  </si>
+  <si>
+    <t>Highland North</t>
+  </si>
+  <si>
+    <t>VEN-304</t>
+  </si>
+  <si>
+    <t>After calling RMC and checking in put tower into manual stop nd disabled switch rights. tower was down on a fm 700 after getting up tower pinned the hub out and shut off all power to the hub off. shut breakers 102f2 and 102f3 and 101f1 and 300f1. Entered the hub and removed slip ring replaced with new one and made all conections. checked work and back to the nacel to clear tower after tower was clear unpinned the hub and let it pin wheel for 10 min and tower was good. went down tower and started turbine. tower is up and running</t>
+  </si>
+  <si>
+    <t>700144684</t>
+  </si>
+  <si>
+    <t>KRAYN-WKO-NDX-20150106-02</t>
+  </si>
+  <si>
+    <t>US-HIGHLAND-WEA80826</t>
+  </si>
+  <si>
+    <t>1/6/2015</t>
+  </si>
+  <si>
+    <t>Highland 1</t>
+  </si>
+  <si>
+    <t>After shutting tower down and putting into a manual stop went up tower to inspect fm172 breaker was tripped breaker did not trip until tower was back up and runnin, removed yaw skirt pieces that was ttore and hanging down. inspeceted around yaw gear and looked for any more loose skirting. went down tower and tower is running</t>
+  </si>
+  <si>
+    <t>700144509</t>
+  </si>
+  <si>
+    <t>KRAYN-WKO-NDX-20140622-02</t>
+  </si>
+  <si>
+    <t>FM1141 - 22WEA80830 FM1141 PitchAngle 1</t>
+  </si>
+  <si>
+    <t>7/1/2014</t>
+  </si>
+  <si>
+    <t>6/22/2014</t>
+  </si>
+  <si>
+    <t>6/23/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went up tower and locked out the rotor.  Entered the hub to find a stud in blade 1 had broken in the #8 position.  The stud and nutwere found easily.  The washer was found after some searching.  The internal of the hub was inspected for damage with only cosmetic damge found including chipped paint, dented cabinet doors, and slung grease.  We adjusted the RED encoder in blade 1 since it hadbeen knocked out of adjustment.  We then returned to the nacelle and unlocked the rotor.  We started the turbien to allow for a pitch test which passed.  So we manually stopped the turbien and headed down tower.  We then started the turbien with no further defects noted at this time.</t>
+  </si>
+  <si>
+    <t>800072675</t>
   </si>
 </sst>
 </file>
@@ -510,23 +852,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="A2:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="40" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="12.140625" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="12" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" bestFit="1" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" bestFit="1" width="9.85546875" customWidth="1"/>
@@ -545,415 +887,2124 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J2" s="0">
-        <v>7.1666666666666661</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.41666666666666663</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="S2" s="0">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J3" s="0">
-        <v>4.5</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="0">
-        <v>5.5</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="S3" s="0">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J4" s="0">
-        <v>1.5</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.5</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="S4" s="0">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="J5" s="0">
-        <v>1.5</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.75</v>
+        <v>27.966666666666669</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="S5" s="0">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="0">
-        <v>7.1</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>0.11666666666666667</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>30</v>
+      <c r="S6" s="0">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="0">
+      <c r="S7" s="0">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="0">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>27.966666666666669</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="0">
+        <v>3</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="0">
+        <v>2.3</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>2.4833333333333334</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="0">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="S11" s="0">
+        <v>20</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="0">
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>3.8666666666666667</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="0">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="0">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="0">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="S15" s="0">
+        <v>4</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="0">
+        <v>4</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="0">
+        <v>1</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="0">
+        <v>6</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="0">
+        <v>6</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="0">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="0">
+        <v>7</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="0">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>0</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="0">
+        <v>7.1666666666666661</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="0">
+        <v>1</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="0">
+        <v>1</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" s="0">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="S27" s="0">
+        <v>4</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="S28" s="0">
+        <v>1</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="S29" s="0">
+        <v>6</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="S30" s="0">
+        <v>6</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="0">
+        <v>7.1</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="0">
         <v>3.333333333333333</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="0">
+      <c r="K32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="0">
         <v>3.6666666666666665</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>52</v>
+      <c r="R32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="0">
+        <v>1</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="0">
+        <v>6.0166666666666666</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q33" s="0">
+        <v>7</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="0">
+        <v>1</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="0">
+        <v>4.25</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="0">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="0">
+        <v>10.4</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -964,11 +3015,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="0">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0">
+        <v>3</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
